--- a/data/trans_orig/P59A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EBD156-F1B8-4F86-912F-1C0DA89A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{335351FA-6C23-4A48-B2CC-2D39B7096139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A63B74F-CC90-4A90-904C-F032CF309AD0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A4E066C-3623-472D-A675-80EFCDC60C03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,12%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>15,6%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>87,84%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1630 +254,1612 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
     <t>10,45%</t>
   </si>
   <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>16,93%</t>
   </si>
   <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>91,13%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>97,67%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>94,13%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>18,2%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>14,58%</t>
+    <t>14,85%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,42%</t>
+    <t>85,15%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086D5BC-CDCA-42FF-A293-A2870A9B20BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174048CA-6A13-4675-83B5-61C168B86837}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3820,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77A9442-810C-4CE1-B912-266E438BE9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160008C8-D0D5-43AC-AABD-03EBDC6B4C37}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4084,10 +4066,10 @@
         <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4111,13 +4093,13 @@
         <v>56684</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4114,13 @@
         <v>162346</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4147,13 +4129,13 @@
         <v>170781</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -4162,13 +4144,13 @@
         <v>333127</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4218,13 @@
         <v>15322</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4251,13 +4233,13 @@
         <v>13101</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4266,13 +4248,13 @@
         <v>28422</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4269,13 @@
         <v>122980</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4302,13 +4284,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4317,13 +4299,13 @@
         <v>250158</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4373,13 @@
         <v>62293</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4406,13 +4388,13 @@
         <v>52531</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4421,13 +4403,13 @@
         <v>114824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4424,13 @@
         <v>222188</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -4457,13 +4439,13 @@
         <v>210295</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -4472,13 +4454,13 @@
         <v>432484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4528,13 @@
         <v>9952</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4561,13 +4543,13 @@
         <v>15023</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4579,10 +4561,10 @@
         <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4579,13 @@
         <v>74803</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4612,13 +4594,13 @@
         <v>76793</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4630,10 +4612,10 @@
         <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4683,13 @@
         <v>11912</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4716,13 +4698,13 @@
         <v>6083</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4731,13 +4713,13 @@
         <v>17996</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4734,13 @@
         <v>91963</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4767,10 +4749,10 @@
         <v>99170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>265</v>
@@ -4889,10 +4871,10 @@
         <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4889,13 @@
         <v>222146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -4922,13 +4904,13 @@
         <v>236790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>430</v>
@@ -4937,13 +4919,13 @@
         <v>458936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4993,13 @@
         <v>37081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5026,13 +5008,13 @@
         <v>37356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -5041,13 +5023,13 @@
         <v>74437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5044,13 @@
         <v>275331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>279</v>
@@ -5077,13 +5059,13 @@
         <v>300038</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -5092,13 +5074,13 @@
         <v>575369</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5148,13 @@
         <v>211582</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -5181,13 +5163,13 @@
         <v>202740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>375</v>
@@ -5196,13 +5178,13 @@
         <v>414321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5199,13 @@
         <v>1171758</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>1145</v>
@@ -5232,13 +5214,13 @@
         <v>1221043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>2261</v>
@@ -5247,13 +5229,13 @@
         <v>2392802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A8A541-26F4-43D9-A746-0782BA30460B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADBFDA0-1939-444C-896C-6845CCC41D09}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5439,13 @@
         <v>27975</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5472,13 +5454,13 @@
         <v>37312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5487,13 +5469,13 @@
         <v>65287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5490,13 @@
         <v>97305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -5523,13 +5505,13 @@
         <v>103794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -5538,13 +5520,13 @@
         <v>201099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5594,13 @@
         <v>22184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5627,13 +5609,13 @@
         <v>16896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5642,13 +5624,13 @@
         <v>39080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5645,13 @@
         <v>181093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -5678,13 +5660,13 @@
         <v>188935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -5693,13 +5675,13 @@
         <v>370028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,10 +5752,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5782,13 +5764,13 @@
         <v>13628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5797,13 +5779,13 @@
         <v>30524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,10 +5803,10 @@
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -5833,13 +5815,13 @@
         <v>135306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5848,13 +5830,13 @@
         <v>232148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5904,13 @@
         <v>58919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5937,13 +5919,13 @@
         <v>46745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5952,13 +5934,13 @@
         <v>105664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5955,13 @@
         <v>106763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -6077,13 +6059,13 @@
         <v>8967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6092,13 +6074,13 @@
         <v>5548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -6107,13 +6089,13 @@
         <v>14515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6110,13 @@
         <v>76518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6143,13 +6125,13 @@
         <v>64648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -6158,13 +6140,13 @@
         <v>141166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6214,13 @@
         <v>7746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6247,13 +6229,13 @@
         <v>6511</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6262,13 +6244,13 @@
         <v>14256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6265,13 @@
         <v>96785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -6298,10 +6280,10 @@
         <v>103864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>416</v>
@@ -6405,10 +6387,10 @@
         <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6417,10 +6399,10 @@
         <v>105666</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>427</v>
@@ -6459,7 +6441,7 @@
         <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -6468,13 +6450,13 @@
         <v>594220</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6545,7 @@
         <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6575,10 +6557,10 @@
         <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6575,13 @@
         <v>289151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -6608,13 +6590,13 @@
         <v>309575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>563</v>
@@ -6626,10 +6608,10 @@
         <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6679,13 @@
         <v>255263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>220</v>
@@ -6712,13 +6694,13 @@
         <v>224197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>454</v>
@@ -6727,13 +6709,13 @@
         <v>479461</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6730,13 @@
         <v>1206679</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>1282</v>
@@ -6763,13 +6745,13 @@
         <v>1368918</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>2438</v>
@@ -6778,13 +6760,13 @@
         <v>2575597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06002160-F4B1-4D47-BE1D-946D2F82B5AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042361-DB81-4F2F-A0B9-9A5E877A365B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6988,13 +6970,13 @@
         <v>24689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -7003,13 +6985,13 @@
         <v>21606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7018,13 +7000,13 @@
         <v>46295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7021,13 @@
         <v>104191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
@@ -7054,13 +7036,13 @@
         <v>100527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -7069,13 +7051,13 @@
         <v>204718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7125,13 @@
         <v>50204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -7158,13 +7140,13 @@
         <v>53020</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -7173,13 +7155,13 @@
         <v>103225</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7176,13 @@
         <v>223573</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -7209,13 +7191,13 @@
         <v>219598</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
@@ -7224,13 +7206,13 @@
         <v>443170</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7280,13 @@
         <v>19304</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -7313,13 +7295,13 @@
         <v>27315</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -7331,10 +7313,10 @@
         <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7331,13 @@
         <v>143837</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
@@ -7364,13 +7346,13 @@
         <v>177138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -7379,13 +7361,13 @@
         <v>320976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7435,13 @@
         <v>46808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -7468,13 +7450,13 @@
         <v>38121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -7483,13 +7465,13 @@
         <v>84929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7486,13 @@
         <v>129310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7">
         <v>261</v>
@@ -7519,13 +7501,13 @@
         <v>193924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -7534,13 +7516,13 @@
         <v>323234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7590,13 @@
         <v>8900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7623,13 +7605,13 @@
         <v>10781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7641,10 +7623,10 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7641,13 @@
         <v>86940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -7674,13 +7656,13 @@
         <v>91887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -7692,10 +7674,10 @@
         <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7745,13 @@
         <v>17114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7778,13 +7760,13 @@
         <v>19922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7793,13 +7775,13 @@
         <v>37036</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,10 +7796,10 @@
         <v>126971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>556</v>
@@ -7832,10 +7814,10 @@
         <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -7844,13 +7826,13 @@
         <v>251972</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7900,13 @@
         <v>51231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7933,13 +7915,13 @@
         <v>55742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7948,13 +7930,13 @@
         <v>106973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7951,13 @@
         <v>254864</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
@@ -7984,13 +7966,13 @@
         <v>298342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M23" s="7">
         <v>576</v>
@@ -7999,13 +7981,13 @@
         <v>553206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8055,13 @@
         <v>45297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -8088,13 +8070,13 @@
         <v>18256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -8103,13 +8085,13 @@
         <v>63553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8106,13 @@
         <v>319056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -8139,13 +8121,13 @@
         <v>418842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="M26" s="7">
         <v>734</v>
@@ -8154,13 +8136,13 @@
         <v>737898</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8210,13 @@
         <v>263548</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>592</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
@@ -8243,13 +8225,13 @@
         <v>244763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -8258,13 +8240,13 @@
         <v>508310</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8261,13 @@
         <v>1388742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>267</v>
+        <v>601</v>
       </c>
       <c r="H29" s="7">
         <v>2199</v>
@@ -8294,13 +8276,13 @@
         <v>1625259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>3417</v>
@@ -8309,13 +8291,13 @@
         <v>3014002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{335351FA-6C23-4A48-B2CC-2D39B7096139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D01254-D42E-4B44-AB8E-CE78D13E77B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A4E066C-3623-472D-A675-80EFCDC60C03}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83841C91-9A35-4D70-A2B5-FC2FA9A30F67}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>15,12%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1678 +140,1678 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>7,85%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
   </si>
   <si>
     <t>15,95%</t>
@@ -2271,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174048CA-6A13-4675-83B5-61C168B86837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C754BBA-E260-48AF-BFDE-63B4A33124FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3802,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160008C8-D0D5-43AC-AABD-03EBDC6B4C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391EECAF-17CD-4939-993E-CDEB014B7EBC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4069,7 +4069,7 @@
         <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4078,13 +4078,13 @@
         <v>27030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4093,13 +4093,13 @@
         <v>56684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4114,13 @@
         <v>162346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4129,13 +4129,13 @@
         <v>170781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -4144,13 +4144,13 @@
         <v>333127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4218,13 @@
         <v>15322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4233,13 +4233,13 @@
         <v>13101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4248,13 +4248,13 @@
         <v>28422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4269,13 @@
         <v>122980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4284,13 +4284,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4299,13 +4299,13 @@
         <v>250158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4373,13 @@
         <v>62293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4388,13 +4388,13 @@
         <v>52531</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4403,13 +4403,13 @@
         <v>114824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4424,13 @@
         <v>222188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -4439,13 +4439,13 @@
         <v>210295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -4454,13 +4454,13 @@
         <v>432484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4528,13 @@
         <v>9952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4543,13 +4543,13 @@
         <v>15023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4561,10 +4561,10 @@
         <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4579,13 @@
         <v>74803</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4594,13 +4594,13 @@
         <v>76793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4612,10 +4612,10 @@
         <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4683,13 @@
         <v>11912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4698,13 +4698,13 @@
         <v>6083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4713,13 +4713,13 @@
         <v>17996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4734,13 @@
         <v>91963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4749,13 +4749,13 @@
         <v>99170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4764,13 +4764,13 @@
         <v>191132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4838,13 @@
         <v>45369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4853,13 +4853,13 @@
         <v>51615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -4868,13 +4868,13 @@
         <v>96984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4889,13 @@
         <v>222146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -4904,13 +4904,13 @@
         <v>236790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>430</v>
@@ -4919,13 +4919,13 @@
         <v>458936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4993,13 @@
         <v>37081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5008,13 +5008,13 @@
         <v>37356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -5023,13 +5023,13 @@
         <v>74437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,10 +5044,10 @@
         <v>275331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>297</v>
@@ -5062,10 +5062,10 @@
         <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -5074,13 +5074,13 @@
         <v>575369</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,10 +5181,10 @@
         <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5199,13 @@
         <v>1171758</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>1145</v>
@@ -5214,13 +5214,13 @@
         <v>1221043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>2261</v>
@@ -5229,13 +5229,13 @@
         <v>2392802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADBFDA0-1939-444C-896C-6845CCC41D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADEEE7-2AC6-4614-BF21-FF54FAB34FC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5439,13 @@
         <v>27975</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5454,13 +5454,13 @@
         <v>37312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5469,13 +5469,13 @@
         <v>65287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5490,13 @@
         <v>97305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -5505,13 +5505,13 @@
         <v>103794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -5520,13 +5520,13 @@
         <v>201099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5594,13 @@
         <v>22184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5609,13 +5609,13 @@
         <v>16896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5624,13 +5624,13 @@
         <v>39080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5645,13 @@
         <v>181093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -5660,13 +5660,13 @@
         <v>188935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -5675,13 +5675,13 @@
         <v>370028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5764,13 +5764,13 @@
         <v>13628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5779,13 +5779,13 @@
         <v>30524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,10 +5803,10 @@
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -5907,10 +5907,10 @@
         <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5919,13 +5919,13 @@
         <v>46745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5934,13 +5934,13 @@
         <v>105664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5955,13 @@
         <v>106763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -5970,13 +5970,13 @@
         <v>130799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -5985,13 +5985,13 @@
         <v>237562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6059,13 @@
         <v>8967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6074,13 +6074,13 @@
         <v>5548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -6089,13 +6089,13 @@
         <v>14515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6110,13 @@
         <v>76518</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6125,13 +6125,13 @@
         <v>64648</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -6140,13 +6140,13 @@
         <v>141166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6214,13 @@
         <v>7746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6229,13 +6229,13 @@
         <v>6511</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6244,13 +6244,13 @@
         <v>14256</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6265,13 @@
         <v>96785</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -6280,10 +6280,10 @@
         <v>103864</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>416</v>
@@ -6387,10 +6387,10 @@
         <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6399,13 +6399,13 @@
         <v>105666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6420,13 @@
         <v>262222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>308</v>
@@ -6435,13 +6435,13 @@
         <v>331998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -6450,13 +6450,13 @@
         <v>594220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,10 +6524,10 @@
         <v>54427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>438</v>
@@ -6542,10 +6542,10 @@
         <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6557,10 +6557,10 @@
         <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6575,13 @@
         <v>289151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -6590,13 +6590,13 @@
         <v>309575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>563</v>
@@ -6608,10 +6608,10 @@
         <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6679,13 @@
         <v>255263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>220</v>
@@ -6694,13 +6694,13 @@
         <v>224197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>454</v>
@@ -6709,13 +6709,13 @@
         <v>479461</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6730,13 @@
         <v>1206679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>1282</v>
@@ -6745,13 +6745,13 @@
         <v>1368918</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>2438</v>
@@ -6760,13 +6760,13 @@
         <v>2575597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042361-DB81-4F2F-A0B9-9A5E877A365B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB48D7-8A1D-4BEE-916A-E183887E6AFE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6970,13 @@
         <v>24689</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -6985,13 +6985,13 @@
         <v>21606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7036,13 +7036,13 @@
         <v>100527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -7051,13 +7051,13 @@
         <v>204718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7125,13 @@
         <v>50204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -7140,13 +7140,13 @@
         <v>53020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -7155,13 +7155,13 @@
         <v>103225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7176,13 @@
         <v>223573</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -7191,13 +7191,13 @@
         <v>219598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
@@ -7206,10 +7206,10 @@
         <v>443170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>496</v>
@@ -7748,7 +7748,7 @@
         <v>549</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>420</v>
@@ -7760,13 +7760,13 @@
         <v>19922</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7775,13 +7775,13 @@
         <v>37036</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7796,13 @@
         <v>126971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -7811,10 +7811,10 @@
         <v>125001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -7826,13 +7826,13 @@
         <v>251972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7900,13 @@
         <v>51231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7915,13 +7915,13 @@
         <v>55742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7930,13 +7930,13 @@
         <v>106973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7951,13 @@
         <v>254864</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
@@ -7966,13 +7966,13 @@
         <v>298342</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M23" s="7">
         <v>576</v>
@@ -7981,13 +7981,13 @@
         <v>553206</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8055,13 @@
         <v>45297</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -8070,13 +8070,13 @@
         <v>18256</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -8085,13 +8085,13 @@
         <v>63553</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>319056</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -8121,10 +8121,10 @@
         <v>418842</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>588</v>
@@ -8139,10 +8139,10 @@
         <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D01254-D42E-4B44-AB8E-CE78D13E77B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D495A8FF-5EBD-4D70-87BF-BD41A115A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83841C91-9A35-4D70-A2B5-FC2FA9A30F67}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{673ABA08-E86A-48DC-A293-329B32B1ABAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>87,02%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1669 +197,1687 @@
     <t>15,6%</t>
   </si>
   <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>10,45%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>89,55%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>14,58%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,42%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C754BBA-E260-48AF-BFDE-63B4A33124FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFBF435-2593-4262-863B-310C88A72C5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3802,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391EECAF-17CD-4939-993E-CDEB014B7EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1343DA5-A831-4F59-A0AB-67A036BD1576}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4066,10 +4084,10 @@
         <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4078,13 +4096,13 @@
         <v>27030</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4093,13 +4111,13 @@
         <v>56684</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4132,13 @@
         <v>162346</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4129,13 +4147,13 @@
         <v>170781</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -4144,13 +4162,13 @@
         <v>333127</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4236,13 @@
         <v>15322</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4233,13 +4251,13 @@
         <v>13101</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4248,13 +4266,13 @@
         <v>28422</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4287,13 @@
         <v>122980</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4284,13 +4302,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4299,10 +4317,10 @@
         <v>250158</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>218</v>
@@ -4704,7 +4722,7 @@
         <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4713,13 +4731,13 @@
         <v>17996</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4752,13 @@
         <v>91963</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4749,13 +4767,13 @@
         <v>99170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4764,13 +4782,13 @@
         <v>191132</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4856,13 @@
         <v>45369</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4853,13 +4871,13 @@
         <v>51615</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -4868,13 +4886,13 @@
         <v>96984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4907,13 @@
         <v>222146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -4904,13 +4922,13 @@
         <v>236790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>430</v>
@@ -4919,13 +4937,13 @@
         <v>458936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5011,13 @@
         <v>37081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5008,13 +5026,13 @@
         <v>37356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -5023,13 +5041,13 @@
         <v>74437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5062,13 @@
         <v>275331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>279</v>
@@ -5059,13 +5077,13 @@
         <v>300038</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -5074,13 +5092,13 @@
         <v>575369</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5166,13 @@
         <v>211582</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -5163,13 +5181,13 @@
         <v>202740</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>375</v>
@@ -5178,13 +5196,13 @@
         <v>414321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5217,13 @@
         <v>1171758</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>1145</v>
@@ -5214,13 +5232,13 @@
         <v>1221043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>2261</v>
@@ -5229,13 +5247,13 @@
         <v>2392802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADEEE7-2AC6-4614-BF21-FF54FAB34FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D96761-DA76-4A29-8279-CA1AF8F2137E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5457,13 @@
         <v>27975</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5454,13 +5472,13 @@
         <v>37312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5469,13 +5487,13 @@
         <v>65287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5508,13 @@
         <v>97305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -5505,13 +5523,13 @@
         <v>103794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -5520,13 +5538,13 @@
         <v>201099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5612,13 @@
         <v>22184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5609,13 +5627,13 @@
         <v>16896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5624,13 +5642,13 @@
         <v>39080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5663,13 @@
         <v>181093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -5660,13 +5678,13 @@
         <v>188935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -5675,13 +5693,13 @@
         <v>370028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,10 +5770,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5764,13 +5782,13 @@
         <v>13628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5779,13 +5797,13 @@
         <v>30524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,10 +5821,10 @@
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -5815,13 +5833,13 @@
         <v>135306</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5830,13 +5848,13 @@
         <v>232148</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5922,13 @@
         <v>58919</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5919,13 +5937,13 @@
         <v>46745</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5934,13 +5952,13 @@
         <v>105664</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5973,13 @@
         <v>106763</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -5970,13 +5988,13 @@
         <v>130799</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -5985,13 +6003,13 @@
         <v>237562</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6077,13 @@
         <v>8967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6074,13 +6092,13 @@
         <v>5548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -6089,13 +6107,13 @@
         <v>14515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6128,13 @@
         <v>76518</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6125,13 +6143,13 @@
         <v>64648</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -6140,13 +6158,13 @@
         <v>141166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,10 +6420,10 @@
         <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6438,13 @@
         <v>262222</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>308</v>
@@ -6435,13 +6453,13 @@
         <v>331998</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -6450,13 +6468,13 @@
         <v>594220</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,10 +6542,10 @@
         <v>54427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>438</v>
@@ -6542,10 +6560,10 @@
         <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6575,13 +6593,13 @@
         <v>289151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -6590,13 +6608,13 @@
         <v>309575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>563</v>
@@ -6608,10 +6626,10 @@
         <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6697,13 @@
         <v>255263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>220</v>
@@ -6694,13 +6712,13 @@
         <v>224197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>454</v>
@@ -6709,13 +6727,13 @@
         <v>479461</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6748,13 @@
         <v>1206679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>236</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>1282</v>
@@ -6745,13 +6763,13 @@
         <v>1368918</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>2438</v>
@@ -6760,13 +6778,13 @@
         <v>2575597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB48D7-8A1D-4BEE-916A-E183887E6AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C722277E-0825-4D63-8B29-8650ADDC9F4F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6988,13 @@
         <v>24689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -6985,13 +7003,13 @@
         <v>21606</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -7000,13 +7018,13 @@
         <v>46295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7039,13 @@
         <v>104191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
@@ -7036,13 +7054,13 @@
         <v>100527</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -7051,13 +7069,13 @@
         <v>204718</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,7 +7179,7 @@
         <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7194,13 @@
         <v>223573</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -7191,13 +7209,13 @@
         <v>219598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
@@ -7206,13 +7224,13 @@
         <v>443170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7298,13 @@
         <v>19304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -7295,13 +7313,13 @@
         <v>27315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -7313,10 +7331,10 @@
         <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7349,13 @@
         <v>143837</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
@@ -7346,13 +7364,13 @@
         <v>177138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -7361,13 +7379,13 @@
         <v>320976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7453,13 @@
         <v>46808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -7450,13 +7468,13 @@
         <v>38121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -7465,13 +7483,13 @@
         <v>84929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7504,13 @@
         <v>129310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>261</v>
@@ -7501,13 +7519,13 @@
         <v>193924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -7516,13 +7534,13 @@
         <v>323234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7608,13 @@
         <v>8900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7605,13 +7623,13 @@
         <v>10781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7623,10 +7641,10 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7659,13 @@
         <v>86940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -7656,13 +7674,13 @@
         <v>91887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -7674,10 +7692,10 @@
         <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7763,13 @@
         <v>17114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7760,13 +7778,13 @@
         <v>19922</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -7778,10 +7796,10 @@
         <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7814,13 @@
         <v>126971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -7811,13 +7829,13 @@
         <v>125001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -7826,13 +7844,13 @@
         <v>251972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7918,13 @@
         <v>51231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7915,13 +7933,13 @@
         <v>55742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7930,13 +7948,13 @@
         <v>106973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7969,13 @@
         <v>254864</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
@@ -7966,13 +7984,13 @@
         <v>298342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>576</v>
@@ -7981,13 +7999,13 @@
         <v>553206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8073,13 @@
         <v>45297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -8070,13 +8088,13 @@
         <v>18256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -8085,13 +8103,13 @@
         <v>63553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8124,13 @@
         <v>319056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -8121,13 +8139,13 @@
         <v>418842</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>734</v>
@@ -8136,13 +8154,13 @@
         <v>737898</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8228,13 @@
         <v>263548</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>592</v>
+        <v>260</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
@@ -8225,13 +8243,13 @@
         <v>244763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
@@ -8240,13 +8258,13 @@
         <v>508310</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8279,13 @@
         <v>1388742</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>2199</v>
@@ -8276,13 +8294,13 @@
         <v>1625259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="M29" s="7">
         <v>3417</v>
@@ -8291,13 +8309,13 @@
         <v>3014002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D495A8FF-5EBD-4D70-87BF-BD41A115A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06415C8D-61D1-425C-B632-9A32759D5BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{673ABA08-E86A-48DC-A293-329B32B1ABAF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE0B40B0-F795-46F7-A612-EA0B1EFCD13B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="628">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>15,44%</t>
@@ -698,58 +749,52 @@
     <t>93,21%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>11,74%</t>
@@ -1448,436 +1493,436 @@
     <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFBF435-2593-4262-863B-310C88A72C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB42512-6E06-4A6A-910C-34D67FD50CF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3731,7 +3776,7 @@
         <v>2319</v>
       </c>
       <c r="N29" s="7">
-        <v>2352859</v>
+        <v>2352858</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3782,7 +3827,7 @@
         <v>2619</v>
       </c>
       <c r="N30" s="7">
-        <v>2670516</v>
+        <v>2670515</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3820,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1343DA5-A831-4F59-A0AB-67A036BD1576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB2159E-A50E-4B5B-A469-F5A4DC59BCC7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3938,43 +3983,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28461</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25685</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>54146</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,43 +4034,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D5" s="7">
+        <v>101353</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86507</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="N5" s="7">
+        <v>187861</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,43 +4085,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="D6" s="7">
+        <v>129814</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>112192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="N6" s="7">
+        <v>242007</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4144,13 @@
         <v>29654</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4096,13 +4159,13 @@
         <v>27030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -4111,13 +4174,13 @@
         <v>56684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,10 +4195,10 @@
         <v>162346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>87</v>
@@ -4147,13 +4210,13 @@
         <v>170781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -4162,13 +4225,13 @@
         <v>333127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4299,13 @@
         <v>15322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4251,13 +4314,13 @@
         <v>13101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4266,13 +4329,13 @@
         <v>28422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4350,13 @@
         <v>122980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4302,13 +4365,13 @@
         <v>127177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>241</v>
@@ -4317,13 +4380,13 @@
         <v>250158</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,49 +4448,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>62293</v>
+        <v>33833</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>52531</v>
+        <v>26846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>114824</v>
+        <v>60678</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>222188</v>
+        <v>120834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="I14" s="7">
-        <v>210295</v>
+        <v>123788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>414</v>
+        <v>234</v>
       </c>
       <c r="N14" s="7">
-        <v>432484</v>
+        <v>244623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="D15" s="7">
-        <v>284481</v>
+        <v>154667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4502,10 +4565,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="I15" s="7">
-        <v>262826</v>
+        <v>150634</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4517,10 +4580,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>517</v>
+        <v>288</v>
       </c>
       <c r="N15" s="7">
-        <v>547308</v>
+        <v>305301</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4546,13 +4609,13 @@
         <v>9952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4561,13 +4624,13 @@
         <v>15023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4579,10 +4642,10 @@
         <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4660,13 @@
         <v>74803</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4612,13 +4675,13 @@
         <v>76793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -4630,10 +4693,10 @@
         <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4764,13 @@
         <v>11912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4716,13 +4779,13 @@
         <v>6083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -4731,13 +4794,13 @@
         <v>17996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4815,13 @@
         <v>91963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4767,13 +4830,13 @@
         <v>99170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4782,13 +4845,13 @@
         <v>191132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4919,13 @@
         <v>45369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4871,13 +4934,13 @@
         <v>51615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -4886,13 +4949,13 @@
         <v>96984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4970,13 @@
         <v>222146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>218</v>
@@ -4922,13 +4985,13 @@
         <v>236790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>430</v>
@@ -4937,10 +5000,10 @@
         <v>458936</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>143</v>
@@ -5011,13 +5074,13 @@
         <v>37081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5026,10 +5089,10 @@
         <v>37356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5041,13 +5104,13 @@
         <v>74437</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5125,13 @@
         <v>275331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>279</v>
@@ -5077,13 +5140,13 @@
         <v>300038</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>537</v>
@@ -5092,13 +5155,13 @@
         <v>575369</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5229,13 @@
         <v>211582</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>183</v>
@@ -5181,13 +5244,13 @@
         <v>202740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>375</v>
@@ -5196,13 +5259,13 @@
         <v>414321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5280,13 @@
         <v>1171758</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>1145</v>
@@ -5232,13 +5295,13 @@
         <v>1221043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>2261</v>
@@ -5247,13 +5310,13 @@
         <v>2392802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D96761-DA76-4A29-8279-CA1AF8F2137E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D9CC5-E17A-4A9F-A307-7F100308AAB0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5520,13 @@
         <v>27975</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5472,13 +5535,13 @@
         <v>37312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -5487,13 +5550,13 @@
         <v>65287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5571,13 @@
         <v>97305</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -5523,13 +5586,13 @@
         <v>103794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -5538,13 +5601,13 @@
         <v>201099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5675,13 @@
         <v>22184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5627,13 +5690,13 @@
         <v>16896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5642,13 +5705,13 @@
         <v>39080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5726,13 @@
         <v>181093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>173</v>
@@ -5678,13 +5741,13 @@
         <v>188935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -5693,13 +5756,13 @@
         <v>370028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,10 +5833,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5782,13 +5845,13 @@
         <v>13628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5797,13 +5860,13 @@
         <v>30524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,10 +5884,10 @@
         <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -5833,13 +5896,13 @@
         <v>135306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>236</v>
@@ -5848,13 +5911,13 @@
         <v>232148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5985,13 @@
         <v>58919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5937,13 +6000,13 @@
         <v>46745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5952,13 +6015,13 @@
         <v>105664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6036,13 @@
         <v>106763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -5988,13 +6051,13 @@
         <v>130799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -6003,13 +6066,13 @@
         <v>237562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,10 +6143,10 @@
         <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6092,13 +6155,13 @@
         <v>5548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -6107,13 +6170,13 @@
         <v>14515</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,10 +6194,10 @@
         <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6143,13 +6206,13 @@
         <v>64648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -6158,13 +6221,13 @@
         <v>141166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6295,13 @@
         <v>7746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6247,13 +6310,13 @@
         <v>6511</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6262,13 +6325,13 @@
         <v>14256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6346,13 @@
         <v>96785</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -6298,13 +6361,13 @@
         <v>103864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>196</v>
@@ -6313,13 +6376,13 @@
         <v>200650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6450,13 @@
         <v>58150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -6402,13 +6465,13 @@
         <v>47516</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6417,13 +6480,13 @@
         <v>105666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6501,13 @@
         <v>262222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>308</v>
@@ -6453,13 +6516,13 @@
         <v>331998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>541</v>
@@ -6468,13 +6531,13 @@
         <v>594220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6605,13 @@
         <v>54427</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -6557,13 +6620,13 @@
         <v>50041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6575,10 +6638,10 @@
         <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6656,13 @@
         <v>289151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>283</v>
@@ -6608,13 +6671,13 @@
         <v>309575</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>563</v>
@@ -6626,10 +6689,10 @@
         <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6760,13 @@
         <v>255263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
         <v>220</v>
@@ -6712,13 +6775,13 @@
         <v>224197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>454</v>
@@ -6727,13 +6790,13 @@
         <v>479461</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6811,13 @@
         <v>1206679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>1282</v>
@@ -6763,13 +6826,13 @@
         <v>1368918</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>2438</v>
@@ -6778,13 +6841,13 @@
         <v>2575597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C722277E-0825-4D63-8B29-8650ADDC9F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF201C6-C1C0-45D1-885B-840D8C53344F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,46 +7048,46 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>24689</v>
+        <v>29487</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>21606</v>
+        <v>24522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>46295</v>
+        <v>54009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,46 +7099,46 @@
         <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>104191</v>
+        <v>134789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>100527</v>
+        <v>108938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
       </c>
       <c r="N5" s="7">
-        <v>204718</v>
+        <v>243727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7150,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>128880</v>
+        <v>164276</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7102,7 +7165,7 @@
         <v>222</v>
       </c>
       <c r="I6" s="7">
-        <v>122133</v>
+        <v>133460</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7117,7 +7180,7 @@
         <v>355</v>
       </c>
       <c r="N6" s="7">
-        <v>251013</v>
+        <v>297736</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7140,46 +7203,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>50204</v>
+        <v>50811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>53020</v>
+        <v>49895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
       </c>
       <c r="N7" s="7">
-        <v>103225</v>
+        <v>100706</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,46 +7254,46 @@
         <v>135</v>
       </c>
       <c r="D8" s="7">
-        <v>223573</v>
+        <v>231138</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>219598</v>
+        <v>202128</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>407</v>
       </c>
       <c r="N8" s="7">
-        <v>443170</v>
+        <v>433266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7305,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>273777</v>
+        <v>281949</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7257,7 +7320,7 @@
         <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>272618</v>
+        <v>252023</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7272,7 +7335,7 @@
         <v>493</v>
       </c>
       <c r="N9" s="7">
-        <v>546395</v>
+        <v>533972</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7295,46 +7358,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>19304</v>
+        <v>19027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>27315</v>
+        <v>25690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>46618</v>
+        <v>44716</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,46 +7409,46 @@
         <v>143</v>
       </c>
       <c r="D11" s="7">
-        <v>143837</v>
+        <v>143294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="H11" s="7">
         <v>240</v>
       </c>
       <c r="I11" s="7">
-        <v>177138</v>
+        <v>164894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
       </c>
       <c r="N11" s="7">
-        <v>320976</v>
+        <v>308190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7460,7 @@
         <v>165</v>
       </c>
       <c r="D12" s="7">
-        <v>163141</v>
+        <v>162321</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7412,7 +7475,7 @@
         <v>273</v>
       </c>
       <c r="I12" s="7">
-        <v>204453</v>
+        <v>190584</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7427,7 +7490,7 @@
         <v>438</v>
       </c>
       <c r="N12" s="7">
-        <v>367594</v>
+        <v>352906</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7450,46 +7513,46 @@
         <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>46808</v>
+        <v>45405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>38121</v>
+        <v>34666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>84929</v>
+        <v>80071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,46 +7564,46 @@
         <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>129310</v>
+        <v>128870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>261</v>
       </c>
       <c r="I14" s="7">
-        <v>193924</v>
+        <v>234482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
       </c>
       <c r="N14" s="7">
-        <v>323234</v>
+        <v>363352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7615,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>176118</v>
+        <v>174275</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7567,7 +7630,7 @@
         <v>299</v>
       </c>
       <c r="I15" s="7">
-        <v>232045</v>
+        <v>269148</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7582,7 +7645,7 @@
         <v>430</v>
       </c>
       <c r="N15" s="7">
-        <v>408163</v>
+        <v>443423</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7605,46 +7668,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8900</v>
+        <v>7996</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>10781</v>
+        <v>9646</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>19681</v>
+        <v>17643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>35</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,46 +7719,46 @@
         <v>112</v>
       </c>
       <c r="D17" s="7">
-        <v>86940</v>
+        <v>78429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>539</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
       </c>
       <c r="I17" s="7">
-        <v>91887</v>
+        <v>80922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>540</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
       </c>
       <c r="N17" s="7">
-        <v>178827</v>
+        <v>159350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7770,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="7">
-        <v>95840</v>
+        <v>86425</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7722,7 +7785,7 @@
         <v>202</v>
       </c>
       <c r="I18" s="7">
-        <v>102668</v>
+        <v>90568</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7737,7 +7800,7 @@
         <v>323</v>
       </c>
       <c r="N18" s="7">
-        <v>198508</v>
+        <v>176993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7760,46 +7823,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>17114</v>
+        <v>16905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>19922</v>
+        <v>18308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>37036</v>
+        <v>35213</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,46 +7874,46 @@
         <v>156</v>
       </c>
       <c r="D20" s="7">
-        <v>126971</v>
+        <v>124633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
       </c>
       <c r="I20" s="7">
-        <v>125001</v>
+        <v>116763</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
       </c>
       <c r="N20" s="7">
-        <v>251972</v>
+        <v>241396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7925,7 @@
         <v>176</v>
       </c>
       <c r="D21" s="7">
-        <v>144085</v>
+        <v>141538</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7877,7 +7940,7 @@
         <v>229</v>
       </c>
       <c r="I21" s="7">
-        <v>144923</v>
+        <v>135071</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7892,7 +7955,7 @@
         <v>405</v>
       </c>
       <c r="N21" s="7">
-        <v>289008</v>
+        <v>276609</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7915,46 +7978,46 @@
         <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>51231</v>
+        <v>50887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>55742</v>
+        <v>51691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
       </c>
       <c r="N22" s="7">
-        <v>106973</v>
+        <v>102578</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,46 +8029,46 @@
         <v>207</v>
       </c>
       <c r="D23" s="7">
-        <v>254864</v>
+        <v>262475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>369</v>
       </c>
       <c r="I23" s="7">
-        <v>298342</v>
+        <v>274245</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>576</v>
       </c>
       <c r="N23" s="7">
-        <v>553206</v>
+        <v>536720</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +8080,7 @@
         <v>252</v>
       </c>
       <c r="D24" s="7">
-        <v>306095</v>
+        <v>313362</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8032,7 +8095,7 @@
         <v>445</v>
       </c>
       <c r="I24" s="7">
-        <v>354084</v>
+        <v>325936</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8047,7 +8110,7 @@
         <v>697</v>
       </c>
       <c r="N24" s="7">
-        <v>660179</v>
+        <v>639298</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8070,46 +8133,46 @@
         <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>45297</v>
+        <v>37988</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>18256</v>
+        <v>14579</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>63553</v>
+        <v>52568</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,46 +8184,46 @@
         <v>255</v>
       </c>
       <c r="D26" s="7">
-        <v>319056</v>
+        <v>267454</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
       </c>
       <c r="I26" s="7">
-        <v>418842</v>
+        <v>340820</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="M26" s="7">
         <v>734</v>
       </c>
       <c r="N26" s="7">
-        <v>737898</v>
+        <v>608273</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,7 +8235,7 @@
         <v>289</v>
       </c>
       <c r="D27" s="7">
-        <v>364353</v>
+        <v>305442</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8187,7 +8250,7 @@
         <v>496</v>
       </c>
       <c r="I27" s="7">
-        <v>437098</v>
+        <v>355399</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8202,7 +8265,7 @@
         <v>785</v>
       </c>
       <c r="N27" s="7">
-        <v>801451</v>
+        <v>660841</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8225,46 +8288,46 @@
         <v>216</v>
       </c>
       <c r="D28" s="7">
-        <v>263548</v>
+        <v>258506</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
         <v>293</v>
       </c>
       <c r="I28" s="7">
-        <v>244763</v>
+        <v>228998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>32</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>509</v>
       </c>
       <c r="N28" s="7">
-        <v>508310</v>
+        <v>487504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,46 +8339,46 @@
         <v>1218</v>
       </c>
       <c r="D29" s="7">
-        <v>1388742</v>
+        <v>1371082</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>267</v>
+        <v>621</v>
       </c>
       <c r="H29" s="7">
         <v>2199</v>
       </c>
       <c r="I29" s="7">
-        <v>1625259</v>
+        <v>1523191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>41</v>
+        <v>624</v>
       </c>
       <c r="M29" s="7">
         <v>3417</v>
       </c>
       <c r="N29" s="7">
-        <v>3014002</v>
+        <v>2894273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8390,7 @@
         <v>1434</v>
       </c>
       <c r="D30" s="7">
-        <v>1652290</v>
+        <v>1629588</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8342,7 +8405,7 @@
         <v>2492</v>
       </c>
       <c r="I30" s="7">
-        <v>1870022</v>
+        <v>1752189</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8357,7 +8420,7 @@
         <v>3926</v>
       </c>
       <c r="N30" s="7">
-        <v>3522312</v>
+        <v>3381777</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
